--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caizixi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7695" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
     <sheet name="C和指针" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="C++Primer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -1541,7 +1541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1704,7 +1704,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1965,7 +1965,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="73.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3110,7 +3110,7 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3806,7 +3806,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -3823,7 +3823,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>486</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>365</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>366</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1109,379 +1109,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1 编写一个简单的C++程序</t>
-  </si>
-  <si>
-    <t>1.2 初识输入输出</t>
-  </si>
-  <si>
-    <t>1.3 注释简介</t>
-  </si>
-  <si>
-    <t>1.4 控制流</t>
-  </si>
-  <si>
-    <t>1.5 类简介</t>
-  </si>
-  <si>
-    <t>1.6 书店程序</t>
-  </si>
-  <si>
-    <t>2.1 基本内置类型</t>
-  </si>
-  <si>
-    <t>2.2 变量</t>
-  </si>
-  <si>
-    <t>2.3 复合类型</t>
-  </si>
-  <si>
-    <t>2.4 const限定符</t>
-  </si>
-  <si>
-    <t>2.5 处理类型</t>
-  </si>
-  <si>
-    <t>2.6 自定义数据结构</t>
-  </si>
-  <si>
     <t>第3章 字符串、向量和数组</t>
   </si>
   <si>
-    <t>3.1 命名空间的using声明</t>
-  </si>
-  <si>
-    <t>3.2 标准库类型string</t>
-  </si>
-  <si>
-    <t>3.3 标准库类型vector</t>
-  </si>
-  <si>
-    <t>3.4 迭代器介绍</t>
-  </si>
-  <si>
-    <t>3.5 数组</t>
-  </si>
-  <si>
-    <t>3.6 多维数组</t>
-  </si>
-  <si>
-    <t>4.1 基础</t>
-  </si>
-  <si>
-    <t>4.2 算术运算符</t>
-  </si>
-  <si>
-    <t>4.3 逻辑和关系运算符</t>
-  </si>
-  <si>
-    <t>4.4 赋值运算符</t>
-  </si>
-  <si>
-    <t>4.5 递增和递减运算符</t>
-  </si>
-  <si>
-    <t>4.6 成员访问运算符</t>
-  </si>
-  <si>
-    <t>4.7 条件运算符</t>
-  </si>
-  <si>
-    <t>4.8 位运算符</t>
-  </si>
-  <si>
-    <t>4.9 sizeof运算符</t>
-  </si>
-  <si>
-    <t>4.10 逗号运算符</t>
-  </si>
-  <si>
-    <t>4.11 类型转换</t>
-  </si>
-  <si>
-    <t>4.12 运算符优先级表</t>
-  </si>
-  <si>
-    <t>5.1 简单语句</t>
-  </si>
-  <si>
-    <t>5.2 语句作用域</t>
-  </si>
-  <si>
-    <t>5.3 条件语句</t>
-  </si>
-  <si>
-    <t>5.4 迭代语句</t>
-  </si>
-  <si>
-    <t>5.5 跳转语句</t>
-  </si>
-  <si>
-    <t>5.6 TRY语句块和异常处理</t>
-  </si>
-  <si>
     <t>第6章 函数</t>
   </si>
   <si>
-    <t>6.1 函数基础</t>
-  </si>
-  <si>
-    <t>6.2 参数传递</t>
-  </si>
-  <si>
-    <t>6.3 返回类型和return语句</t>
-  </si>
-  <si>
-    <t>6.4 函数重载</t>
-  </si>
-  <si>
-    <t>6.5 特殊用途语言特性</t>
-  </si>
-  <si>
-    <t>6.6 函数匹配</t>
-  </si>
-  <si>
-    <t>6.7 函数指针</t>
-  </si>
-  <si>
-    <t>7.1 定义抽象数据类型</t>
-  </si>
-  <si>
-    <t>7.2 访问控制与封装</t>
-  </si>
-  <si>
-    <t>7.3 类的其他特性</t>
-  </si>
-  <si>
-    <t>7.4 类的作用域</t>
-  </si>
-  <si>
-    <t>7.5 构造函数再探</t>
-  </si>
-  <si>
-    <t>7.6 类的静态成员</t>
-  </si>
-  <si>
-    <t>8.1 IO类</t>
-  </si>
-  <si>
-    <t>8.2 文件输入输出</t>
-  </si>
-  <si>
-    <t>8.3 string流</t>
-  </si>
-  <si>
     <t>第9章 顺序容器</t>
   </si>
   <si>
-    <t>9.1 顺序容器概述</t>
-  </si>
-  <si>
-    <t>9.2 容器库概览</t>
-  </si>
-  <si>
-    <t>9.3 顺序容器操作</t>
-  </si>
-  <si>
-    <t>9.4 vector对象是如何增长的</t>
-  </si>
-  <si>
-    <t>9.5 额外的string操作</t>
-  </si>
-  <si>
-    <t>9.6 容器适配器</t>
-  </si>
-  <si>
-    <t>10.1 概述</t>
-  </si>
-  <si>
-    <t>10.2 初识泛型算法</t>
-  </si>
-  <si>
-    <t>10.3 定制操作</t>
-  </si>
-  <si>
-    <t>10.4 再探迭代器</t>
-  </si>
-  <si>
-    <t>10.5 泛型算法结构</t>
-  </si>
-  <si>
-    <t>10.6 特定容器算法</t>
-  </si>
-  <si>
-    <t>11.1 使用关联容器</t>
-  </si>
-  <si>
-    <t>11.2 关联容器概述</t>
-  </si>
-  <si>
-    <t>11.3 关联容器操作</t>
-  </si>
-  <si>
-    <t>11.4 无序容器</t>
-  </si>
-  <si>
-    <t>12.1 动态内存与智能指针</t>
-  </si>
-  <si>
-    <t>12.2 动态数组</t>
-  </si>
-  <si>
-    <t>12.3 使用标准库：文本查询程序</t>
-  </si>
-  <si>
     <t>第13章 拷贝控制</t>
   </si>
   <si>
-    <t>13.1 拷贝、赋值与销毁</t>
-  </si>
-  <si>
-    <t>13.2 拷贝控制和资源管理</t>
-  </si>
-  <si>
-    <t>13.3 交换操作</t>
-  </si>
-  <si>
-    <t>13.4 拷贝控制示例</t>
-  </si>
-  <si>
-    <t>13.5 动态内存管理类</t>
-  </si>
-  <si>
-    <t>13.6 对象移动</t>
-  </si>
-  <si>
     <t>第14章 操作重载与类型转换</t>
   </si>
   <si>
-    <t>14.1 基本概念</t>
-  </si>
-  <si>
-    <t>14.2 输入和输出运算符</t>
-  </si>
-  <si>
-    <t>14.3 算术和关系运算符</t>
-  </si>
-  <si>
-    <t>14.4 赋值运算符</t>
-  </si>
-  <si>
-    <t>14.5 下标运算符</t>
-  </si>
-  <si>
-    <t>14.6 递增和递减运算符</t>
-  </si>
-  <si>
-    <t>14.7 成员访问运算符</t>
-  </si>
-  <si>
-    <t>14.8 函数调用运算符</t>
-  </si>
-  <si>
-    <t>14.9 重载、类型转换与运算符</t>
-  </si>
-  <si>
     <t>第15章 面向对象程序设计</t>
   </si>
   <si>
-    <t>15.1 OOP：概述</t>
-  </si>
-  <si>
-    <t>15.2 定义基类和派生类</t>
-  </si>
-  <si>
-    <t>15.3 虚函数</t>
-  </si>
-  <si>
-    <t>15.4 抽象基类</t>
-  </si>
-  <si>
-    <t>15.5 访问控制与继承</t>
-  </si>
-  <si>
-    <t>15.6 继承中的类作用域</t>
-  </si>
-  <si>
-    <t>15.7 构造函数与拷贝控制</t>
-  </si>
-  <si>
-    <t>15.8 容器与继承</t>
-  </si>
-  <si>
-    <t>15.9 文本查询程序再探</t>
-  </si>
-  <si>
     <t>第16章 模板与泛型编程</t>
   </si>
   <si>
-    <t>16.1 定义模板</t>
-  </si>
-  <si>
-    <t>16.2 模板实参推断</t>
-  </si>
-  <si>
-    <t>16.3 重载与模板</t>
-  </si>
-  <si>
-    <t>16.4 可变参数模板</t>
-  </si>
-  <si>
-    <t>16.5 模板特例化</t>
-  </si>
-  <si>
-    <t>17.1 tuple类型</t>
-  </si>
-  <si>
-    <t>17.2 BITSET类型</t>
-  </si>
-  <si>
-    <t>17.3 正则表达式</t>
-  </si>
-  <si>
-    <t>17.4 随机数</t>
-  </si>
-  <si>
-    <t>17.5 IO库再探</t>
-  </si>
-  <si>
     <t>第18章 用于大型程序的工具</t>
   </si>
   <si>
-    <t>18.1 异常处理</t>
-  </si>
-  <si>
-    <t>18.2 命名空间</t>
-  </si>
-  <si>
-    <t>18.3 多重继承与虚继承</t>
-  </si>
-  <si>
     <t>第19章 特殊工具与技术</t>
-  </si>
-  <si>
-    <t>19.1 控制内存分配</t>
-  </si>
-  <si>
-    <t>19.2 运行时类型识别</t>
-  </si>
-  <si>
-    <t>19.3 枚举类型</t>
-  </si>
-  <si>
-    <t>19.4 类成员指针</t>
-  </si>
-  <si>
-    <t>19.5 嵌套类</t>
-  </si>
-  <si>
-    <t>19.6 union：一种节省空间的类</t>
-  </si>
-  <si>
-    <t>19.7 局部类</t>
-  </si>
-  <si>
-    <t>19.8 固有的不可移植的特性</t>
   </si>
   <si>
     <t xml:space="preserve">        3.1     语句和语法   60</t>
@@ -1536,6 +1188,354 @@
   </si>
   <si>
     <t>第17章 标准库特殊设施</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.1 编写一个简单的C++程序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.2 初识输入输出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.3 注释简介</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.4 控制流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.5 类简介</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.6 书店程序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 基本内置类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2 变量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.3 复合类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.4 const限定符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.5 处理类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.6 自定义数据结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 命名空间的using声明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2 标准库类型string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3 标准库类型vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.4 迭代器介绍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.5 数组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.6 多维数组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1 基础</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2 算术运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.3 逻辑和关系运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.4 赋值运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.5 递增和递减运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.6 成员访问运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.7 条件运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.8 位运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.9 sizeof运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.10 逗号运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.11 类型转换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.12 运算符优先级表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.1 简单语句</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.2 语句作用域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.3 条件语句</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.4 迭代语句</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.5 跳转语句</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.6 TRY语句块和异常处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.1 函数基础</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.2 参数传递</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.3 返回类型和return语句</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.4 函数重载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.5 特殊用途语言特性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.6 函数匹配</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.7 函数指针</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.1 定义抽象数据类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.2 访问控制与封装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.3 类的其他特性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.4 类的作用域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.5 构造函数再探</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.6 类的静态成员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.1 IO类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.2 文件输入输出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.3 string流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.1 顺序容器概述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.2 容器库概览</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.3 顺序容器操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.4 vector对象是如何增长的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.5 额外的string操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9.6 容器适配器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.1 概述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.2 初识泛型算法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.3 定制操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.4 再探迭代器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.5 泛型算法结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 特定容器算法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.1 使用关联容器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.2 关联容器概述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.3 关联容器操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    11.4 无序容器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.1 动态内存与智能指针</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.2 动态数组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    12.3 使用标准库：文本查询程序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.1 拷贝、赋值与销毁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.2 拷贝控制和资源管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.3 交换操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.4 拷贝控制示例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.5 动态内存管理类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    13.6 对象移动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.1 基本概念</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.2 输入和输出运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.3 算术和关系运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.4 赋值运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.5 下标运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.6 递增和递减运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.7 成员访问运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.8 函数调用运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    14.9 重载、类型转换与运算符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.1 OOP：概述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.2 定义基类和派生类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.3 虚函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.4 抽象基类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.5 访问控制与继承</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.6 继承中的类作用域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.7 构造函数与拷贝控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.8 容器与继承</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    15.9 文本查询程序再探</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16.1 定义模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16.2 模板实参推断</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16.3 重载与模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16.4 可变参数模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    16.5 模板特例化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17.1 tuple类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17.2 BITSET类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17.3 正则表达式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17.4 随机数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    17.5 IO库再探</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    18.1 异常处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    18.2 命名空间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    18.3 多重继承与虚继承</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.1 控制内存分配</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.2 运行时类型识别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.3 枚举类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.4 类成员指针</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.5 嵌套类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.6 union：一种节省空间的类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.7 局部类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    19.8 固有的不可移植的特性</t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1601,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1610,10 +1612,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2088,12 +2092,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>484</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>483</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
@@ -3803,7 +3807,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3825,18 +3829,18 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>370</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>485</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3844,7 +3848,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -3852,7 +3856,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -3860,7 +3864,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -3868,7 +3872,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -3876,7 +3880,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -3884,7 +3888,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>371</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -3892,7 +3896,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>372</v>
       </c>
       <c r="B10">
         <v>29</v>
@@ -3900,40 +3904,40 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>485</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B12">
         <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>485</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="B13">
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>485</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="B14">
         <v>53</v>
@@ -3941,7 +3945,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="B15">
         <v>60</v>
@@ -3949,7 +3953,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B16">
         <v>64</v>
@@ -3957,7 +3961,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B17">
         <v>73</v>
@@ -3965,7 +3969,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -3973,7 +3977,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="B19">
         <v>75</v>
@@ -3981,7 +3985,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="B20">
         <v>86</v>
@@ -3989,7 +3993,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B21">
         <v>95</v>
@@ -3997,7 +4001,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="B22">
         <v>101</v>
@@ -4005,7 +4009,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B23">
         <v>112</v>
@@ -4013,7 +4017,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>489</v>
+        <v>373</v>
       </c>
       <c r="B24">
         <v>119</v>
@@ -4021,7 +4025,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B25">
         <v>120</v>
@@ -4029,7 +4033,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="B26">
         <v>124</v>
@@ -4037,7 +4041,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="B27">
         <v>126</v>
@@ -4045,7 +4049,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B28">
         <v>129</v>
@@ -4053,7 +4057,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="B29">
         <v>131</v>
@@ -4061,7 +4065,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="B30">
         <v>133</v>
@@ -4069,7 +4073,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B31">
         <v>134</v>
@@ -4077,7 +4081,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B32">
         <v>135</v>
@@ -4085,7 +4089,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B33">
         <v>139</v>
@@ -4093,7 +4097,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B34">
         <v>140</v>
@@ -4101,7 +4105,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B35">
         <v>141</v>
@@ -4109,7 +4113,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B36">
         <v>147</v>
@@ -4117,7 +4121,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>490</v>
+        <v>374</v>
       </c>
       <c r="B37">
         <v>153</v>
@@ -4125,7 +4129,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B38">
         <v>154</v>
@@ -4133,7 +4137,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B39">
         <v>155</v>
@@ -4141,7 +4145,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B40">
         <v>156</v>
@@ -4149,7 +4153,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B41">
         <v>165</v>
@@ -4157,7 +4161,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="B42">
         <v>170</v>
@@ -4165,7 +4169,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="B43">
         <v>172</v>
@@ -4173,7 +4177,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="B44">
         <v>181</v>
@@ -4181,7 +4185,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B45">
         <v>182</v>
@@ -4189,7 +4193,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B46">
         <v>187</v>
@@ -4197,7 +4201,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B47">
         <v>199</v>
@@ -4205,7 +4209,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B48">
         <v>206</v>
@@ -4213,7 +4217,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B49">
         <v>211</v>
@@ -4221,7 +4225,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B50">
         <v>217</v>
@@ -4229,7 +4233,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="B51">
         <v>221</v>
@@ -4237,7 +4241,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>491</v>
+        <v>375</v>
       </c>
       <c r="B52">
         <v>227</v>
@@ -4245,7 +4249,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B53">
         <v>228</v>
@@ -4253,7 +4257,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="B54">
         <v>240</v>
@@ -4261,7 +4265,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B55">
         <v>243</v>
@@ -4269,7 +4273,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B56">
         <v>253</v>
@@ -4277,7 +4281,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="B57">
         <v>257</v>
@@ -4285,7 +4289,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B58">
         <v>268</v>
@@ -4293,7 +4297,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>492</v>
+        <v>376</v>
       </c>
       <c r="B59">
         <v>275</v>
@@ -4301,7 +4305,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="B60">
         <v>277</v>
@@ -4309,7 +4313,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B61">
         <v>278</v>
@@ -4317,7 +4321,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B62">
         <v>283</v>
@@ -4325,7 +4329,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B63">
         <v>287</v>
@@ -4333,7 +4337,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="B64">
         <v>291</v>
@@ -4341,7 +4345,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="B65">
         <v>292</v>
@@ -4349,7 +4353,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="B66">
         <v>294</v>
@@ -4357,7 +4361,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="B67">
         <v>305</v>
@@ -4365,7 +4369,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="B68">
         <v>317</v>
@@ -4373,7 +4377,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="B69">
         <v>320</v>
@@ -4381,7 +4385,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="B70">
         <v>329</v>
@@ -4389,7 +4393,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>378</v>
       </c>
       <c r="B71">
         <v>335</v>
@@ -4397,7 +4401,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="B72">
         <v>336</v>
@@ -4405,7 +4409,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="B73">
         <v>338</v>
@@ -4413,7 +4417,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="B74">
         <v>344</v>
@@ -4421,7 +4425,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="B75">
         <v>357</v>
@@ -4429,7 +4433,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="B76">
         <v>365</v>
@@ -4437,7 +4441,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="B77">
         <v>369</v>
@@ -4445,7 +4449,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>495</v>
+        <v>379</v>
       </c>
       <c r="B78">
         <v>373</v>
@@ -4453,7 +4457,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="B79">
         <v>374</v>
@@ -4461,7 +4465,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="B80">
         <v>376</v>
@@ -4469,7 +4473,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="B81">
         <v>381</v>
@@ -4477,7 +4481,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="B82">
         <v>394</v>
@@ -4485,7 +4489,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>496</v>
+        <v>380</v>
       </c>
       <c r="B83">
         <v>399</v>
@@ -4493,7 +4497,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="B84">
         <v>400</v>
@@ -4501,7 +4505,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="B85">
         <v>423</v>
@@ -4509,7 +4513,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B86">
         <v>430</v>
@@ -4517,7 +4521,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>497</v>
+        <v>381</v>
       </c>
       <c r="B87">
         <v>437</v>
@@ -4525,7 +4529,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="B88">
         <v>439</v>
@@ -4533,7 +4537,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="B89">
         <v>440</v>
@@ -4541,7 +4545,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="B90">
         <v>452</v>
@@ -4549,7 +4553,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="B91">
         <v>457</v>
@@ -4557,7 +4561,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="B92">
         <v>460</v>
@@ -4565,7 +4569,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="B93">
         <v>464</v>
@@ -4573,7 +4577,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="B94">
         <v>470</v>
@@ -4581,7 +4585,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>439</v>
+        <v>362</v>
       </c>
       <c r="B95">
         <v>489</v>
@@ -4589,7 +4593,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="B96">
         <v>490</v>
@@ -4597,7 +4601,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="B97">
         <v>494</v>
@@ -4605,7 +4609,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="B98">
         <v>497</v>
@@ -4613,7 +4617,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="B99">
         <v>499</v>
@@ -4621,7 +4625,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="B100">
         <v>501</v>
@@ -4629,7 +4633,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="B101">
         <v>502</v>
@@ -4637,7 +4641,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="B102">
         <v>504</v>
@@ -4645,7 +4649,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B103">
         <v>506</v>
@@ -4653,7 +4657,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="B104">
         <v>514</v>
@@ -4661,7 +4665,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>449</v>
+        <v>363</v>
       </c>
       <c r="B105">
         <v>525</v>
@@ -4669,7 +4673,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B106">
         <v>526</v>
@@ -4677,7 +4681,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B107">
         <v>527</v>
@@ -4685,7 +4689,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B108">
         <v>536</v>
@@ -4693,7 +4697,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B109">
         <v>540</v>
@@ -4701,7 +4705,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B110">
         <v>542</v>
@@ -4709,7 +4713,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="B111">
         <v>547</v>
@@ -4717,7 +4721,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B112">
         <v>551</v>
@@ -4725,7 +4729,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B113">
         <v>558</v>
@@ -4733,7 +4737,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B114">
         <v>562</v>
@@ -4741,7 +4745,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="B115">
         <v>577</v>
@@ -4749,7 +4753,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="B116">
         <v>578</v>
@@ -4757,7 +4761,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="B117">
         <v>600</v>
@@ -4765,7 +4769,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="B118">
         <v>614</v>
@@ -4773,7 +4777,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="B119">
         <v>618</v>
@@ -4781,7 +4785,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="B120">
         <v>624</v>
@@ -4789,7 +4793,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>498</v>
+        <v>382</v>
       </c>
       <c r="B121">
         <v>633</v>
@@ -4797,7 +4801,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>499</v>
+        <v>383</v>
       </c>
       <c r="B122">
         <v>635</v>
@@ -4805,7 +4809,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="B123">
         <v>636</v>
@@ -4813,7 +4817,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="B124">
         <v>640</v>
@@ -4821,7 +4825,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="B125">
         <v>645</v>
@@ -4829,7 +4833,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="B126">
         <v>659</v>
@@ -4837,7 +4841,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="B127">
         <v>666</v>
@@ -4845,7 +4849,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="B128">
         <v>683</v>
@@ -4853,7 +4857,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="B129">
         <v>684</v>
@@ -4861,7 +4865,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="B130">
         <v>695</v>
@@ -4869,7 +4873,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="B131">
         <v>710</v>
@@ -4877,7 +4881,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="B132">
         <v>725</v>
@@ -4885,7 +4889,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="B133">
         <v>726</v>
@@ -4893,7 +4897,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="B134">
         <v>730</v>
@@ -4901,7 +4905,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="B135">
         <v>736</v>
@@ -4909,7 +4913,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B136">
         <v>739</v>
@@ -4917,7 +4921,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="B137">
         <v>746</v>
@@ -4925,7 +4929,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="B138">
         <v>749</v>
@@ -4933,7 +4937,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="B139">
         <v>754</v>
@@ -4941,7 +4945,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="B140">
         <v>755</v>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codeman/Documents/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="500">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -3110,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3134,633 +3134,999 @@
       <c r="A2" t="s">
         <v>224</v>
       </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>225</v>
       </c>
+      <c r="B3" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>226</v>
       </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>227</v>
       </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>228</v>
       </c>
+      <c r="B6" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>229</v>
       </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>230</v>
       </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>231</v>
       </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>232</v>
       </c>
+      <c r="B10" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>233</v>
       </c>
+      <c r="B11" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>234</v>
       </c>
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>235</v>
       </c>
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>236</v>
       </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>237</v>
       </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>350</v>
       </c>
@@ -3806,7 +4172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codeman/Documents/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="501">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1536,6 +1536,10 @@
   </si>
   <si>
     <t xml:space="preserve">    19.8 固有的不可移植的特性</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3110,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3134,633 +3138,999 @@
       <c r="A2" t="s">
         <v>224</v>
       </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>225</v>
       </c>
+      <c r="B3" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>226</v>
       </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>227</v>
       </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>228</v>
       </c>
+      <c r="B6" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>229</v>
       </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>230</v>
       </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>231</v>
       </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>232</v>
       </c>
+      <c r="B10" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>233</v>
       </c>
+      <c r="B11" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>234</v>
       </c>
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>235</v>
       </c>
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>236</v>
       </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>237</v>
       </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>350</v>
       </c>
@@ -3806,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3834,6 +4204,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>500</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>369</v>
       </c>
@@ -3845,6 +4218,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3853,6 +4229,9 @@
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -3861,6 +4240,9 @@
       <c r="B5">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -3869,6 +4251,9 @@
       <c r="B6">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -3877,6 +4262,9 @@
       <c r="B7">
         <v>17</v>
       </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -3884,6 +4272,9 @@
       </c>
       <c r="B8">
         <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1536,6 +1536,10 @@
   </si>
   <si>
     <t xml:space="preserve">    19.8 固有的不可移植的特性</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -1969,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1993,633 +1997,996 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>124</v>
       </c>
@@ -3114,7 +3481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B122"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="B113" sqref="B108:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2845,148 +2845,103 @@
       <c r="A108" t="s">
         <v>104</v>
       </c>
-      <c r="B108" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>105</v>
       </c>
-      <c r="B109" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>106</v>
       </c>
-      <c r="B110" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>107</v>
       </c>
-      <c r="B111" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>108</v>
       </c>
-      <c r="B112" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>109</v>
       </c>
-      <c r="B113" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>110</v>
       </c>
-      <c r="B114" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>111</v>
       </c>
-      <c r="B115" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>112</v>
       </c>
-      <c r="B116" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>113</v>
       </c>
-      <c r="B117" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>114</v>
       </c>
-      <c r="B118" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>115</v>
       </c>
-      <c r="B119" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>116</v>
       </c>
-      <c r="B120" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>117</v>
       </c>
-      <c r="B121" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>118</v>
       </c>
-      <c r="B122" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>124</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B113" sqref="B108:B113"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2845,103 +2845,151 @@
       <c r="A108" t="s">
         <v>104</v>
       </c>
+      <c r="B108" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>105</v>
       </c>
+      <c r="B109" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>106</v>
       </c>
+      <c r="B110" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>107</v>
       </c>
+      <c r="B111" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>124</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="500">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1601,8 +1601,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1612,12 +1614,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3807,7 +3811,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3837,6 +3841,9 @@
       <c r="D2" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development program\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="500">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1541,7 +1541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1625,74 +1625,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1973,7 +1905,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="73.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3118,7 +3050,7 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3811,10 +3743,10 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -3831,66 +3763,82 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>370</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>384</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>385</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>386</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>387</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>388</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>389</v>
       </c>
       <c r="B8">
         <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3901,15 +3849,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>372</v>
       </c>
       <c r="B10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>390</v>
       </c>
@@ -3920,7 +3869,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>391</v>
       </c>
@@ -3931,7 +3880,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -3942,31 +3891,40 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>393</v>
       </c>
       <c r="B14">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D14" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>394</v>
       </c>
       <c r="B15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D15" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>395</v>
       </c>
       <c r="B16">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D16" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -3974,39 +3932,51 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>396</v>
       </c>
       <c r="B18">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>397</v>
       </c>
       <c r="B19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D19" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>398</v>
       </c>
       <c r="B20">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D20" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>399</v>
       </c>
       <c r="B21">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>400</v>
       </c>
@@ -4014,7 +3984,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -4022,7 +3992,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -4030,7 +4000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>402</v>
       </c>
@@ -4038,7 +4008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>403</v>
       </c>
@@ -4046,7 +4016,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>404</v>
       </c>
@@ -4054,7 +4024,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>405</v>
       </c>
@@ -4062,7 +4032,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>406</v>
       </c>
@@ -4070,7 +4040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>407</v>
       </c>
@@ -4078,7 +4048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>408</v>
       </c>
@@ -4086,7 +4056,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>409</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development program\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="500">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1541,7 +1541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1601,8 +1601,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1614,14 +1618,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1905,7 +1913,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="73.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3050,7 +3058,7 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3743,10 +3751,10 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -3763,7 +3771,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -3771,11 +3779,8 @@
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -3785,8 +3790,11 @@
       <c r="D3" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -3796,8 +3804,11 @@
       <c r="D4" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>386</v>
       </c>
@@ -3807,8 +3818,11 @@
       <c r="D5" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>387</v>
       </c>
@@ -3818,8 +3832,11 @@
       <c r="D6" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>388</v>
       </c>
@@ -3829,8 +3846,11 @@
       <c r="D7" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>389</v>
       </c>
@@ -3838,6 +3858,9 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3849,7 +3872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -3858,7 +3881,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>390</v>
       </c>
@@ -3868,8 +3891,11 @@
       <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>391</v>
       </c>
@@ -3879,8 +3905,11 @@
       <c r="D12" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -3890,8 +3919,11 @@
       <c r="D13" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>393</v>
       </c>
@@ -3901,8 +3933,11 @@
       <c r="D14" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -3913,7 +3948,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>395</v>
       </c>
@@ -3932,7 +3967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>396</v>
       </c>
@@ -3943,7 +3978,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>397</v>
       </c>
@@ -3954,7 +3989,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>398</v>
       </c>
@@ -3965,7 +4000,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>399</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="500">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1542,7 +1542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1583,6 +1583,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1601,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1613,23 +1620,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1910,7 +1926,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3751,7 +3767,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3947,6 +3963,9 @@
       <c r="D15" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3958,8 +3977,11 @@
       <c r="D16" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -3967,7 +3989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>396</v>
       </c>
@@ -3977,8 +3999,11 @@
       <c r="D18" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>397</v>
       </c>
@@ -3988,8 +4013,11 @@
       <c r="D19" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>398</v>
       </c>
@@ -3999,8 +4027,11 @@
       <c r="D20" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>399</v>
       </c>
@@ -4010,24 +4041,33 @@
       <c r="D21" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>400</v>
       </c>
       <c r="B22">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>401</v>
       </c>
       <c r="B23">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -4035,7 +4075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>402</v>
       </c>
@@ -4043,7 +4083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>403</v>
       </c>
@@ -4051,7 +4091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>404</v>
       </c>
@@ -4059,7 +4099,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>405</v>
       </c>
@@ -4067,7 +4107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>406</v>
       </c>
@@ -4075,7 +4115,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>407</v>
       </c>
@@ -4083,7 +4123,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>408</v>
       </c>
@@ -4091,7 +4131,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>409</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:B123"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4546,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4654,6 +4654,9 @@
       <c r="B9">
         <v>27</v>
       </c>
+      <c r="C9" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -4662,6 +4665,9 @@
       <c r="B10">
         <v>29</v>
       </c>
+      <c r="C10" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4670,6 +4676,9 @@
       <c r="B11">
         <v>30</v>
       </c>
+      <c r="C11" t="s">
+        <v>369</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
@@ -4681,6 +4690,9 @@
       <c r="B12">
         <v>38</v>
       </c>
+      <c r="C12" t="s">
+        <v>369</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>369</v>
       </c>
@@ -4692,6 +4704,9 @@
       <c r="B13">
         <v>45</v>
       </c>
+      <c r="C13" t="s">
+        <v>369</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>369</v>
       </c>
@@ -4703,6 +4718,9 @@
       <c r="B14">
         <v>53</v>
       </c>
+      <c r="C14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -4711,6 +4729,9 @@
       <c r="B15">
         <v>60</v>
       </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -4719,168 +4740,231 @@
       <c r="B16">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>358</v>
       </c>
       <c r="B17">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>396</v>
       </c>
       <c r="B18">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>397</v>
       </c>
       <c r="B19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>398</v>
       </c>
       <c r="B20">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>399</v>
       </c>
       <c r="B21">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>400</v>
       </c>
       <c r="B22">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>401</v>
       </c>
       <c r="B23">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>373</v>
       </c>
       <c r="B24">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>402</v>
       </c>
       <c r="B25">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>403</v>
       </c>
       <c r="B26">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>404</v>
       </c>
       <c r="B27">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>405</v>
       </c>
       <c r="B28">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>406</v>
       </c>
       <c r="B29">
         <v>131</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>407</v>
       </c>
       <c r="B30">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>408</v>
       </c>
       <c r="B31">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>409</v>
       </c>
       <c r="B32">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>410</v>
       </c>
       <c r="B33">
         <v>139</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>411</v>
       </c>
       <c r="B34">
         <v>140</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>412</v>
       </c>
       <c r="B35">
         <v>141</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>413</v>
       </c>
       <c r="B36">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>374</v>
       </c>
@@ -4888,7 +4972,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>414</v>
       </c>
@@ -4896,7 +4980,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>415</v>
       </c>
@@ -4904,7 +4988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>416</v>
       </c>
@@ -4912,7 +4996,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>417</v>
       </c>
@@ -4920,7 +5004,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>418</v>
       </c>
@@ -4928,7 +5012,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>419</v>
       </c>
@@ -4936,7 +5020,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>359</v>
       </c>
@@ -4944,7 +5028,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -4952,7 +5036,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>421</v>
       </c>
@@ -4960,7 +5044,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>422</v>
       </c>
@@ -4968,7 +5052,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>423</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codeman/Documents/Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1609,8 +1609,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1620,12 +1622,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4547,7 +4551,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4682,6 +4686,9 @@
       <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codeman/Documents/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -4551,7 +4551,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4703,6 +4703,9 @@
       <c r="D12" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4715,6 +4718,9 @@
         <v>369</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>369</v>
       </c>
     </row>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -4551,7 +4551,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4686,9 +4686,7 @@
       <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4703,9 +4701,7 @@
       <c r="D12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4720,9 +4716,7 @@
       <c r="D13" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1609,8 +1609,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1622,14 +1624,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4551,7 +4555,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4703,6 +4707,9 @@
       <c r="D12" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -4555,7 +4555,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4690,9 +4690,7 @@
       <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4707,9 +4705,7 @@
       <c r="D12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -4555,7 +4555,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="503">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1543,6 +1543,10 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahahhaha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4555,7 +4559,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4690,7 +4694,9 @@
       <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codeman/Documents/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="503">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1543,6 +1543,10 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4555,7 +4559,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4720,6 +4724,9 @@
       <c r="D13" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="E13" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1546,7 +1546,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iii</t>
+    <t>xixixii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -4559,7 +4559,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4625,6 +4625,9 @@
       <c r="C5" t="s">
         <v>500</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -4636,6 +4639,9 @@
       <c r="C6" t="s">
         <v>500</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -4647,6 +4653,9 @@
       <c r="C7" t="s">
         <v>500</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -4658,6 +4667,9 @@
       <c r="C8" t="s">
         <v>500</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -4669,6 +4681,9 @@
       <c r="C9" t="s">
         <v>369</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -4680,6 +4695,9 @@
       <c r="C10" t="s">
         <v>369</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4694,7 +4712,9 @@
       <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codeman/Documents/Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caizixi\Source\Repos\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="503">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1728,7 +1728,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1989,7 +1989,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="73.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3500,7 +3500,7 @@
       <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -4558,11 +4558,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -4579,7 +4579,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>390</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>391</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -5008,6 +5008,9 @@
       <c r="B37">
         <v>153</v>
       </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
@@ -5016,6 +5019,9 @@
       <c r="B38">
         <v>154</v>
       </c>
+      <c r="C38" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
@@ -5024,6 +5030,9 @@
       <c r="B39">
         <v>155</v>
       </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
@@ -5032,6 +5041,9 @@
       <c r="B40">
         <v>156</v>
       </c>
+      <c r="C40" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
@@ -5040,6 +5052,9 @@
       <c r="B41">
         <v>165</v>
       </c>
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
@@ -5048,6 +5063,9 @@
       <c r="B42">
         <v>170</v>
       </c>
+      <c r="C42" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
@@ -5056,6 +5074,9 @@
       <c r="B43">
         <v>172</v>
       </c>
+      <c r="C43" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
@@ -5064,6 +5085,9 @@
       <c r="B44">
         <v>181</v>
       </c>
+      <c r="C44" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
@@ -5072,6 +5096,9 @@
       <c r="B45">
         <v>182</v>
       </c>
+      <c r="C45" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
@@ -5080,6 +5107,9 @@
       <c r="B46">
         <v>187</v>
       </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
@@ -5088,6 +5118,9 @@
       <c r="B47">
         <v>199</v>
       </c>
+      <c r="C47" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
@@ -5096,16 +5129,22 @@
       <c r="B48">
         <v>206</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>424</v>
       </c>
       <c r="B49">
         <v>211</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>425</v>
       </c>
@@ -5113,39 +5152,51 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>426</v>
       </c>
       <c r="B51">
         <v>221</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>375</v>
       </c>
       <c r="B52">
         <v>227</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>427</v>
       </c>
       <c r="B53">
         <v>228</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>428</v>
       </c>
       <c r="B54">
         <v>240</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>429</v>
       </c>
@@ -5153,7 +5204,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>430</v>
       </c>
@@ -5161,7 +5212,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>431</v>
       </c>
@@ -5169,7 +5220,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>432</v>
       </c>
@@ -5177,7 +5228,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>376</v>
       </c>
@@ -5185,7 +5236,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>377</v>
       </c>
@@ -5193,7 +5244,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>433</v>
       </c>
@@ -5201,7 +5252,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>434</v>
       </c>
@@ -5209,7 +5260,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>435</v>
       </c>
@@ -5217,7 +5268,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>360</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caizixi\Source\Repos\Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzewei/Documents/Git_repository/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="503">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1613,8 +1613,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1628,16 +1630,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1728,7 +1732,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1989,7 +1993,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="73.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3500,7 +3504,7 @@
       <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -4558,11 +4562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -4579,7 +4583,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>390</v>
       </c>
@@ -4716,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>391</v>
       </c>
@@ -4731,7 +4735,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -5133,7 +5137,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>424</v>
       </c>
@@ -5144,15 +5148,18 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>425</v>
       </c>
       <c r="B50">
         <v>217</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>426</v>
       </c>
@@ -5162,8 +5169,11 @@
       <c r="C51" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -5173,8 +5183,11 @@
       <c r="C52" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>427</v>
       </c>
@@ -5184,8 +5197,11 @@
       <c r="C53" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>428</v>
       </c>
@@ -5196,7 +5212,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>429</v>
       </c>
@@ -5204,7 +5220,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>430</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>431</v>
       </c>
@@ -5220,7 +5236,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>432</v>
       </c>
@@ -5228,7 +5244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>376</v>
       </c>
@@ -5236,7 +5252,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>377</v>
       </c>
@@ -5244,7 +5260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>433</v>
       </c>
@@ -5252,7 +5268,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>434</v>
       </c>
@@ -5260,7 +5276,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>435</v>
       </c>
@@ -5268,7 +5284,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>360</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="python核心编程" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1543,10 +1543,6 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xixixii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1613,8 +1609,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1630,18 +1630,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1989,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2016,6 +2020,9 @@
       <c r="B2" t="s">
         <v>501</v>
       </c>
+      <c r="D2" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2024,6 +2031,9 @@
       <c r="B3" t="s">
         <v>501</v>
       </c>
+      <c r="D3" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -2032,6 +2042,9 @@
       <c r="B4" t="s">
         <v>501</v>
       </c>
+      <c r="D4" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2040,6 +2053,9 @@
       <c r="B5" t="s">
         <v>501</v>
       </c>
+      <c r="D5" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -2048,6 +2064,9 @@
       <c r="B6" t="s">
         <v>501</v>
       </c>
+      <c r="D6" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -2056,6 +2075,9 @@
       <c r="B7" t="s">
         <v>501</v>
       </c>
+      <c r="D7" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2064,6 +2086,9 @@
       <c r="B8" t="s">
         <v>501</v>
       </c>
+      <c r="D8" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2072,6 +2097,9 @@
       <c r="B9" t="s">
         <v>501</v>
       </c>
+      <c r="D9" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -2080,6 +2108,9 @@
       <c r="B10" t="s">
         <v>501</v>
       </c>
+      <c r="D10" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -2088,6 +2119,9 @@
       <c r="B11" t="s">
         <v>501</v>
       </c>
+      <c r="D11" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -2096,6 +2130,9 @@
       <c r="B12" t="s">
         <v>501</v>
       </c>
+      <c r="D12" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -2104,6 +2141,9 @@
       <c r="B13" t="s">
         <v>501</v>
       </c>
+      <c r="D13" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -2112,6 +2152,9 @@
       <c r="B14" t="s">
         <v>501</v>
       </c>
+      <c r="D14" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -2120,6 +2163,9 @@
       <c r="B15" t="s">
         <v>501</v>
       </c>
+      <c r="D15" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -2128,56 +2174,77 @@
       <c r="B16" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>368</v>
       </c>
@@ -2185,7 +2252,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>367</v>
       </c>
@@ -2193,7 +2260,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2201,7 +2268,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +2276,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2217,7 +2284,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2225,7 +2292,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2233,7 +2300,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2241,7 +2308,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2249,7 +2316,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3493,6 +3560,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4562,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4596,6 +4664,9 @@
       <c r="D2" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="E2" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -4607,6 +4678,9 @@
       <c r="C3" t="s">
         <v>500</v>
       </c>
+      <c r="E3" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4618,6 +4692,9 @@
       <c r="C4" t="s">
         <v>500</v>
       </c>
+      <c r="E4" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -4629,8 +4706,8 @@
       <c r="C5" t="s">
         <v>500</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -4643,8 +4720,8 @@
       <c r="C6" t="s">
         <v>500</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -4657,8 +4734,8 @@
       <c r="C7" t="s">
         <v>500</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -4671,8 +4748,8 @@
       <c r="C8" t="s">
         <v>500</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -4685,8 +4762,8 @@
       <c r="C9" t="s">
         <v>369</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -4699,8 +4776,8 @@
       <c r="C10" t="s">
         <v>369</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -4716,8 +4793,8 @@
       <c r="D11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -4733,7 +4810,9 @@
       <c r="D12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4749,7 +4828,7 @@
         <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>502</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -4762,6 +4841,9 @@
       <c r="C14" t="s">
         <v>369</v>
       </c>
+      <c r="E14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -4773,6 +4855,9 @@
       <c r="C15" t="s">
         <v>369</v>
       </c>
+      <c r="E15" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -4784,8 +4869,11 @@
       <c r="C16" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -4795,8 +4883,11 @@
       <c r="C17" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>396</v>
       </c>
@@ -4806,8 +4897,11 @@
       <c r="C18" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>397</v>
       </c>
@@ -4817,8 +4911,11 @@
       <c r="C19" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>398</v>
       </c>
@@ -4828,8 +4925,11 @@
       <c r="C20" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>399</v>
       </c>
@@ -4839,8 +4939,11 @@
       <c r="C21" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>400</v>
       </c>
@@ -4850,8 +4953,11 @@
       <c r="C22" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -4861,8 +4967,11 @@
       <c r="C23" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -4873,7 +4982,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>402</v>
       </c>
@@ -4884,7 +4993,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>403</v>
       </c>
@@ -4895,7 +5004,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>404</v>
       </c>
@@ -4906,7 +5015,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>405</v>
       </c>
@@ -4917,7 +5026,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>406</v>
       </c>
@@ -4928,7 +5037,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>407</v>
       </c>
@@ -4939,7 +5048,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>408</v>
       </c>
@@ -4950,7 +5059,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>409</v>
       </c>

--- a/skillTable.xlsx
+++ b/skillTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="502">
   <si>
     <t>第2章  Python起步   31</t>
   </si>
@@ -1609,8 +1609,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1630,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1639,6 +1641,7 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1646,6 +1649,7 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1994,7 +1998,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2251,6 +2255,9 @@
       <c r="B23" t="s">
         <v>501</v>
       </c>
+      <c r="D23" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -2259,6 +2266,9 @@
       <c r="B24" t="s">
         <v>501</v>
       </c>
+      <c r="D24" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
@@ -2267,6 +2277,9 @@
       <c r="B25" t="s">
         <v>501</v>
       </c>
+      <c r="D25" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
@@ -2275,6 +2288,9 @@
       <c r="B26" t="s">
         <v>501</v>
       </c>
+      <c r="D26" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
@@ -2283,6 +2299,9 @@
       <c r="B27" t="s">
         <v>501</v>
       </c>
+      <c r="D27" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
@@ -2291,6 +2310,9 @@
       <c r="B28" t="s">
         <v>501</v>
       </c>
+      <c r="D28" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
@@ -2299,6 +2321,9 @@
       <c r="B29" t="s">
         <v>501</v>
       </c>
+      <c r="D29" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -2306,6 +2331,9 @@
       </c>
       <c r="B30" t="s">
         <v>501</v>
+      </c>
+      <c r="D30" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
